--- a/Data/beef_trade.xlsx
+++ b/Data/beef_trade.xlsx
@@ -781,9 +781,6 @@
     <t>Chad</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>coutry</t>
   </si>
   <si>
@@ -800,6 +797,9 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH225"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1203,7 +1205,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="12.95" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -17241,7 +17243,7 @@
     </row>
     <row r="218" spans="1:34" s="1" customFormat="1" ht="12.95" customHeight="1">
       <c r="A218" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B218" s="8">
         <v>1135197.35000909</v>
@@ -17359,8 +17361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17375,7 +17377,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="12.95" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -22735,7 +22737,7 @@
     </row>
     <row r="95" spans="1:34" s="1" customFormat="1" ht="12.95" customHeight="1">
       <c r="A95" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B95" s="7">
         <v>2179187.4031513999</v>
@@ -22869,19 +22871,19 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
